--- a/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0057822C-63AA-49EE-8324-C099373563E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammy\eclipse-workspace\inetBankingP1\src\test\java\com\inetbanking\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9237320-19CE-48CA-A6C5-FB967752818E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +41,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr464992</t>
-  </si>
-  <si>
-    <t>epuqena</t>
-  </si>
-  <si>
     <t>mngr464654</t>
   </si>
   <si>
@@ -58,13 +57,19 @@
   </si>
   <si>
     <t>epjkewss</t>
+  </si>
+  <si>
+    <t>mngr509191</t>
+  </si>
+  <si>
+    <t>ymEsybu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,16 +424,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,44 +441,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
